--- a/biology/Zoologie/Angaturama/Angaturama.xlsx
+++ b/biology/Zoologie/Angaturama/Angaturama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Angaturama (« lézard noble ») est un dinosaure théropode, nommé d’après un mot indien tupi qui signifie “noble, brave”. Il vivait au Brésil (Formation Santana) dans les régions proches du Chapada de l'Araripe, dans le Ceará, au cours du Crétacé inférieur (Aptien 125 à 112 millions d’années).
 Le spécimen type a été découvert dans un nodule de calcaire et consiste en la portion antérieure incomplète d'un crâne. Alexander W.A. Kellner et Diogenes de A. Campos publièrent une description en février 1996.
@@ -518,7 +530,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>un prémaxillaire, maxillaire et un morceau de nasal le tout en état de conservation assez médiocre.</t>
         </is>
